--- a/hardware/gen4/ControlsGen4_BOM.xlsx
+++ b/hardware/gen4/ControlsGen4_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="25620" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>LTST-C150KRKT</t>
   </si>
   <si>
-    <t>Xbee</t>
-  </si>
-  <si>
     <t>series 1, whip</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>3.3Reg</t>
+  </si>
+  <si>
+    <t>Xbee 1b1</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1089,26 +1089,26 @@
         <v>5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>24.95</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1">
         <v>5.1100000000000003</v>
@@ -1125,16 +1125,16 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1">
         <v>0.26</v>
@@ -1154,11 +1154,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1167,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1">
         <v>0.28999999999999998</v>
@@ -1181,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>44</v>
@@ -1193,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1">
         <v>0.8</v>
@@ -1207,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -1219,7 +1219,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1">
         <v>0.39</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C24" s="1">
         <v>805</v>
@@ -1245,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7">
         <v>0.1</v>
@@ -1256,15 +1256,15 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1276,22 +1276,22 @@
     <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
